--- a/excel_practice_sheet.xlsx
+++ b/excel_practice_sheet.xlsx
@@ -33,8 +33,113 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jyoti Kr</author>
+  </authors>
+  <commentList>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Anish:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Get number of foods with Region wise</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Anish:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">To find foods with Region and as well as City wise
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Anish:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Get total quantity of foods with Region wise
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="1458">
   <si>
     <t>SUB1</t>
   </si>
@@ -4405,6 +4510,9 @@
   </si>
   <si>
     <t>COUNTIFS</t>
+  </si>
+  <si>
+    <t>SUMIF</t>
   </si>
 </sst>
 </file>
@@ -4415,7 +4523,7 @@
     <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4491,6 +4599,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -5055,109 +5189,109 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3">
         <f ca="1">RANDBETWEEN(40,100)</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:D8" ca="1" si="0">RANDBETWEEN(40,100)</f>
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E8" ca="1" si="1">SUM(B3:D3)+$C$11</f>
-        <v>231</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <f t="shared" ref="B4:B8" ca="1" si="2">RANDBETWEEN(40,100)</f>
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>269</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>240</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>268</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>269</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>255</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -5664,11 +5798,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5964,6 +6098,12 @@
       <c r="I7">
         <v>95.58</v>
       </c>
+      <c r="K7" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>1457</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -5993,6 +6133,13 @@
       <c r="I8">
         <v>520.01</v>
       </c>
+      <c r="K8" t="s">
+        <v>1191</v>
+      </c>
+      <c r="L8">
+        <f>SUMIF($C:$C,$K8,$G:$G)</f>
+        <v>9656</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -6021,6 +6168,13 @@
       </c>
       <c r="I9">
         <v>90.27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L9">
+        <f>SUMIF($C:$C,$K9,$G:$G)</f>
+        <v>5786</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -12873,6 +13027,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/excel_practice_sheet.xlsx
+++ b/excel_practice_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2808" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2808" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="practice 1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Match &amp; Index" sheetId="13" r:id="rId9"/>
     <sheet name="Create menulist" sheetId="11" r:id="rId10"/>
     <sheet name="Statistical" sheetId="14" r:id="rId11"/>
+    <sheet name="Dates" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -109,6 +110,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="T1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anish:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Get total number of products with City wise
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -134,12 +160,96 @@
         </r>
       </text>
     </comment>
+    <comment ref="K13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Anish:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Get average of city wise total price
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Anish:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Get average of total price with product and region wise
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jyoti Kr</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Anish:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Get number of working years from date of joining to till today</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="1458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3239" uniqueCount="1481">
   <si>
     <t>SUB1</t>
   </si>
@@ -4513,6 +4623,75 @@
   </si>
   <si>
     <t>SUMIF</t>
+  </si>
+  <si>
+    <t>Product/Region</t>
+  </si>
+  <si>
+    <t>Product/City</t>
+  </si>
+  <si>
+    <t>SUMIFS</t>
+  </si>
+  <si>
+    <t>AVERAGEIF</t>
+  </si>
+  <si>
+    <t>Project ID</t>
+  </si>
+  <si>
+    <t>PRJ001</t>
+  </si>
+  <si>
+    <t>PRJ002</t>
+  </si>
+  <si>
+    <t>PRJ003</t>
+  </si>
+  <si>
+    <t>PRJ004</t>
+  </si>
+  <si>
+    <t>PRJ005</t>
+  </si>
+  <si>
+    <t>PRJ006</t>
+  </si>
+  <si>
+    <t>PRJ007</t>
+  </si>
+  <si>
+    <t>PRJ008</t>
+  </si>
+  <si>
+    <t>PRJ009</t>
+  </si>
+  <si>
+    <t>PRJ010</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Remaining days</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Date of Joining</t>
+  </si>
+  <si>
+    <t>Tenure (in years)</t>
+  </si>
+  <si>
+    <t>Formated date</t>
+  </si>
+  <si>
+    <t>Dates after 3 Months</t>
   </si>
 </sst>
 </file>
@@ -4754,7 +4933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4852,6 +5031,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5189,109 +5380,109 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3">
         <f ca="1">RANDBETWEEN(40,100)</f>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:D8" ca="1" si="0">RANDBETWEEN(40,100)</f>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E8" ca="1" si="1">SUM(B3:D3)+$C$11</f>
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <f t="shared" ref="B4:B8" ca="1" si="2">RANDBETWEEN(40,100)</f>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>211</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -5799,10 +5990,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S245"/>
+  <dimension ref="A1:X245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5812,10 +6003,18 @@
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.77734375" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1184</v>
       </c>
@@ -5856,8 +6055,15 @@
       <c r="P1" s="49"/>
       <c r="Q1" s="49"/>
       <c r="R1" s="49"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" s="49" t="s">
+        <v>1460</v>
+      </c>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1190</v>
       </c>
@@ -5908,8 +6114,23 @@
         <v>1228</v>
       </c>
       <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1195</v>
       </c>
@@ -5952,19 +6173,38 @@
         <v>88</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:R4" si="0">COUNTIFS($C:$C,$N3,$D:$D,P$2)</f>
+        <f>COUNTIFS($C:$C,$N3,$D:$D,P$2)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C:$C,$N3,$D:$D,Q$2)</f>
         <v>62</v>
       </c>
       <c r="R3">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C:$C,$N3,$D:$D,R$2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="U3">
+        <f>SUMIFS($G:$G,$F:$F,$T3,$D:$D,U$2)</f>
+        <v>1281</v>
+      </c>
+      <c r="V3">
+        <f>SUMIFS($G:$G,$F:$F,$T3,$D:$D,V$2)</f>
+        <v>1262</v>
+      </c>
+      <c r="W3">
+        <f>SUMIFS($G:$G,$F:$F,$T3,$D:$D,W$2)</f>
+        <v>1120</v>
+      </c>
+      <c r="X3">
+        <f>SUMIFS($G:$G,$F:$F,$T3,$D:$D,X$2)</f>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1198</v>
       </c>
@@ -6000,19 +6240,38 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C:$C,$N4,$D:$D,P$2)</f>
         <v>55</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C:$C,$N4,$D:$D,Q$2)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C:$C,$N4,$D:$D,R$2)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="U4">
+        <f>SUMIFS($G:$G,$F:$F,$T4,$D:$D,U$2)</f>
+        <v>726</v>
+      </c>
+      <c r="V4">
+        <f>SUMIFS($G:$G,$F:$F,$T4,$D:$D,V$2)</f>
+        <v>42</v>
+      </c>
+      <c r="W4">
+        <f>SUMIFS($G:$G,$F:$F,$T4,$D:$D,W$2)</f>
+        <v>141</v>
+      </c>
+      <c r="X4">
+        <f>SUMIFS($G:$G,$F:$F,$T4,$D:$D,X$2)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1203</v>
       </c>
@@ -6040,8 +6299,27 @@
       <c r="I5">
         <v>153.34</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="U5">
+        <f>SUMIFS($G:$G,$F:$F,$T5,$D:$D,U$2)</f>
+        <v>642</v>
+      </c>
+      <c r="V5">
+        <f>SUMIFS($G:$G,$F:$F,$T5,$D:$D,V$2)</f>
+        <v>837</v>
+      </c>
+      <c r="W5">
+        <f>SUMIFS($G:$G,$F:$F,$T5,$D:$D,W$2)</f>
+        <v>470</v>
+      </c>
+      <c r="X5">
+        <f>SUMIFS($G:$G,$F:$F,$T5,$D:$D,X$2)</f>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1205</v>
       </c>
@@ -6069,8 +6347,27 @@
       <c r="I6">
         <v>82.84</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="U6">
+        <f>SUMIFS($G:$G,$F:$F,$T6,$D:$D,U$2)</f>
+        <v>880</v>
+      </c>
+      <c r="V6">
+        <f>SUMIFS($G:$G,$F:$F,$T6,$D:$D,V$2)</f>
+        <v>185</v>
+      </c>
+      <c r="W6">
+        <f>SUMIFS($G:$G,$F:$F,$T6,$D:$D,W$2)</f>
+        <v>929</v>
+      </c>
+      <c r="X6">
+        <f>SUMIFS($G:$G,$F:$F,$T6,$D:$D,X$2)</f>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1207</v>
       </c>
@@ -6104,8 +6401,27 @@
       <c r="L7" s="48" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7" t="s">
+        <v>1213</v>
+      </c>
+      <c r="U7">
+        <f>SUMIFS($G:$G,$F:$F,$T7,$D:$D,U$2)</f>
+        <v>205</v>
+      </c>
+      <c r="V7">
+        <f>SUMIFS($G:$G,$F:$F,$T7,$D:$D,V$2)</f>
+        <v>363</v>
+      </c>
+      <c r="W7">
+        <f>SUMIFS($G:$G,$F:$F,$T7,$D:$D,W$2)</f>
+        <v>326</v>
+      </c>
+      <c r="X7">
+        <f>SUMIFS($G:$G,$F:$F,$T7,$D:$D,X$2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1208</v>
       </c>
@@ -6140,8 +6456,27 @@
         <f>SUMIF($C:$C,$K8,$G:$G)</f>
         <v>9656</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="U8">
+        <f>SUMIFS($G:$G,$F:$F,$T8,$D:$D,U$2)</f>
+        <v>1184</v>
+      </c>
+      <c r="V8">
+        <f>SUMIFS($G:$G,$F:$F,$T8,$D:$D,V$2)</f>
+        <v>731</v>
+      </c>
+      <c r="W8">
+        <f>SUMIFS($G:$G,$F:$F,$T8,$D:$D,W$2)</f>
+        <v>457</v>
+      </c>
+      <c r="X8">
+        <f>SUMIFS($G:$G,$F:$F,$T8,$D:$D,X$2)</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1209</v>
       </c>
@@ -6176,8 +6511,27 @@
         <f>SUMIF($C:$C,$K9,$G:$G)</f>
         <v>5786</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9" t="s">
+        <v>1224</v>
+      </c>
+      <c r="U9">
+        <f>SUMIFS($G:$G,$F:$F,$T9,$D:$D,U$2)</f>
+        <v>467</v>
+      </c>
+      <c r="V9">
+        <f>SUMIFS($G:$G,$F:$F,$T9,$D:$D,V$2)</f>
+        <v>349</v>
+      </c>
+      <c r="W9">
+        <f>SUMIFS($G:$G,$F:$F,$T9,$D:$D,W$2)</f>
+        <v>563</v>
+      </c>
+      <c r="X9">
+        <f>SUMIFS($G:$G,$F:$F,$T9,$D:$D,X$2)</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1210</v>
       </c>
@@ -6205,8 +6559,27 @@
       <c r="I10">
         <v>177</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="U10">
+        <f>SUMIFS($G:$G,$F:$F,$T10,$D:$D,U$2)</f>
+        <v>186</v>
+      </c>
+      <c r="V10">
+        <f>SUMIFS($G:$G,$F:$F,$T10,$D:$D,V$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f>SUMIFS($G:$G,$F:$F,$T10,$D:$D,W$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f>SUMIFS($G:$G,$F:$F,$T10,$D:$D,X$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1211</v>
       </c>
@@ -6234,8 +6607,27 @@
       <c r="I11">
         <v>37.800000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11" t="s">
+        <v>1323</v>
+      </c>
+      <c r="U11">
+        <f>SUMIFS($G:$G,$F:$F,$T11,$D:$D,U$2)</f>
+        <v>79</v>
+      </c>
+      <c r="V11">
+        <f>SUMIFS($G:$G,$F:$F,$T11,$D:$D,V$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f>SUMIFS($G:$G,$F:$F,$T11,$D:$D,W$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f>SUMIFS($G:$G,$F:$F,$T11,$D:$D,X$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1214</v>
       </c>
@@ -6264,7 +6656,7 @@
         <v>78.48</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1215</v>
       </c>
@@ -6292,8 +6684,20 @@
       <c r="I13">
         <v>57.97</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K13" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>1461</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>1453</v>
+      </c>
+      <c r="N13" s="48" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1216</v>
       </c>
@@ -6321,8 +6725,23 @@
       <c r="I14">
         <v>97.72</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>1192</v>
+      </c>
+      <c r="L14">
+        <f>AVERAGEIF($D:$D,$K14,$I:$I)</f>
+        <v>150.7446590909091</v>
+      </c>
+      <c r="M14">
+        <f>COUNTIF($D:$D,$K14)</f>
+        <v>88</v>
+      </c>
+      <c r="N14">
+        <f>SUMIF($D:$D,$K14,$I:$I)</f>
+        <v>13265.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1217</v>
       </c>
@@ -6350,8 +6769,23 @@
       <c r="I15">
         <v>77.88</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L15">
+        <f>AVERAGEIF($D:$D,$K15,$I:$I)</f>
+        <v>139.76945454545449</v>
+      </c>
+      <c r="M15">
+        <f>COUNTIF($D:$D,$K15)</f>
+        <v>55</v>
+      </c>
+      <c r="N15">
+        <f>SUMIF($D:$D,$K15,$I:$I)</f>
+        <v>7687.3199999999979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1218</v>
       </c>
@@ -6379,8 +6813,23 @@
       <c r="I16">
         <v>40.71</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L16">
+        <f>AVERAGEIF($D:$D,$K16,$I:$I)</f>
+        <v>133.20693548387101</v>
+      </c>
+      <c r="M16">
+        <f>COUNTIF($D:$D,$K16)</f>
+        <v>62</v>
+      </c>
+      <c r="N16">
+        <f>SUMIF($D:$D,$K16,$I:$I)</f>
+        <v>8258.8300000000017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1219</v>
       </c>
@@ -6408,8 +6857,23 @@
       <c r="I17">
         <v>36.450000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>1228</v>
+      </c>
+      <c r="L17">
+        <f>AVERAGEIF($D:$D,$K17,$I:$I)</f>
+        <v>105.48461538461542</v>
+      </c>
+      <c r="M17">
+        <f>COUNTIF($D:$D,$K17)</f>
+        <v>39</v>
+      </c>
+      <c r="N17">
+        <f>SUMIF($D:$D,$K17,$I:$I)</f>
+        <v>4113.9000000000015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1220</v>
       </c>
@@ -6438,7 +6902,7 @@
         <v>93.739999999999981</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1221</v>
       </c>
@@ -6466,8 +6930,17 @@
       <c r="I19">
         <v>349.32</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K19" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1223</v>
       </c>
@@ -6495,8 +6968,19 @@
       <c r="I20">
         <v>78.540000000000006</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>1194</v>
+      </c>
+      <c r="L20">
+        <f>AVERAGEIFS($I:$I,$F:$F,$K20,$C:$C,L$19)</f>
+        <v>118.04916666666668</v>
+      </c>
+      <c r="M20">
+        <f>AVERAGEIFS($I:$I,$F:$F,$K20,$C:$C,M$19)</f>
+        <v>112.90071428571432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1225</v>
       </c>
@@ -6524,8 +7008,19 @@
       <c r="I21">
         <v>93.72</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>1197</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21:M28" si="0">AVERAGEIFS($I:$I,$F:$F,$K21,$C:$C,L$19)</f>
+        <v>137.53772727272727</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>78.525000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1226</v>
       </c>
@@ -6553,8 +7048,19 @@
       <c r="I22">
         <v>158.94999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>138.62933333333331</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>138.48388888888886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1227</v>
       </c>
@@ -6582,8 +7088,19 @@
       <c r="I23">
         <v>85.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>1206</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>179.25545454545451</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>154.05333333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1229</v>
       </c>
@@ -6611,8 +7128,19 @@
       <c r="I24">
         <v>107.97</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>72.827500000000015</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>77.783999999999992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1230</v>
       </c>
@@ -6640,8 +7168,19 @@
       <c r="I25">
         <v>139.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>274.14352941176469</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>189.26571428571427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1231</v>
       </c>
@@ -6669,8 +7208,19 @@
       <c r="I26">
         <v>160.82</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>1224</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>120.38125000000001</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>92.649999999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1232</v>
       </c>
@@ -6698,8 +7248,19 @@
       <c r="I27">
         <v>67.260000000000005</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>83.7</v>
+      </c>
+      <c r="M27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1233</v>
       </c>
@@ -6727,8 +7288,19 @@
       <c r="I28">
         <v>114.24</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>59.776666666666664</v>
+      </c>
+      <c r="M28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1234</v>
       </c>
@@ -6757,7 +7329,7 @@
         <v>72.930000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1235</v>
       </c>
@@ -6786,7 +7358,7 @@
         <v>192.61</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1236</v>
       </c>
@@ -6815,7 +7387,7 @@
         <v>548.12</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1237</v>
       </c>
@@ -13022,12 +13594,440 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>1475</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>1476</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>1477</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>1478</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>1479</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B2" s="51">
+        <v>45726</v>
+      </c>
+      <c r="C2" s="51">
+        <v>45884</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>158</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="52">
+        <v>33008</v>
+      </c>
+      <c r="K2" s="52">
+        <v>40379</v>
+      </c>
+      <c r="L2">
+        <f ca="1">DATEDIF(K2,TODAY(),"Y")</f>
+        <v>14</v>
+      </c>
+      <c r="M2" t="str">
+        <f>TEXT(K2,"DD-MMM-YYYY")</f>
+        <v>20-Jul-2010</v>
+      </c>
+      <c r="N2" s="10">
+        <f>EOMONTH(M2,3)</f>
+        <v>40482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B3" s="51">
+        <v>45703</v>
+      </c>
+      <c r="C3" s="51">
+        <v>45861</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D11" si="0">C3-B3</f>
+        <v>158</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="52">
+        <v>31328</v>
+      </c>
+      <c r="K3" s="52">
+        <v>39787</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" ca="1" si="1">DATEDIF(K3,TODAY(),"Y")</f>
+        <v>16</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M11" si="2">TEXT(K3,"DD-MMM-YYYY")</f>
+        <v>05-Dec-2008</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" ref="N3:N11" si="3">EOMONTH(M3,3)</f>
+        <v>39903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B4" s="51">
+        <v>45677</v>
+      </c>
+      <c r="C4" s="51">
+        <v>45845</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="52">
+        <v>34020</v>
+      </c>
+      <c r="K4" s="52">
+        <v>42112</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v>18-Apr-2015</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" si="3"/>
+        <v>42216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B5" s="51">
+        <v>45748</v>
+      </c>
+      <c r="C5" s="51">
+        <v>45923</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="52">
+        <v>32327</v>
+      </c>
+      <c r="K5" s="52">
+        <v>41182</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v>30-Sep-2012</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="3"/>
+        <v>41274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B6" s="51">
+        <v>45721</v>
+      </c>
+      <c r="C6" s="51">
+        <v>45866</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="52">
+        <v>34801</v>
+      </c>
+      <c r="K6" s="52">
+        <v>43169</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v>10-Mar-2018</v>
+      </c>
+      <c r="N6" s="10">
+        <f t="shared" si="3"/>
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B7" s="51">
+        <v>45810</v>
+      </c>
+      <c r="C7" s="51">
+        <v>45954</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="52">
+        <v>32106</v>
+      </c>
+      <c r="K7" s="52">
+        <v>40777</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>22-Aug-2011</v>
+      </c>
+      <c r="N7" s="10">
+        <f t="shared" si="3"/>
+        <v>40877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B8" s="51">
+        <v>45710</v>
+      </c>
+      <c r="C8" s="51">
+        <v>45868</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="52">
+        <v>33468</v>
+      </c>
+      <c r="K8" s="52">
+        <v>42658</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>15-Oct-2016</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="3"/>
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B9" s="51">
+        <v>45767</v>
+      </c>
+      <c r="C9" s="51">
+        <v>45958</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="52">
+        <v>30771</v>
+      </c>
+      <c r="K9" s="52">
+        <v>39258</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>25-Jun-2007</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="3"/>
+        <v>39355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B10" s="51">
+        <v>45784</v>
+      </c>
+      <c r="C10" s="51">
+        <v>45970</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="52">
+        <v>34490</v>
+      </c>
+      <c r="K10" s="52">
+        <v>42990</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>12-Sep-2017</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="3"/>
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B11" s="51">
+        <v>45744</v>
+      </c>
+      <c r="C11" s="51">
+        <v>45922</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="52">
+        <v>32852</v>
+      </c>
+      <c r="K11" s="52">
+        <v>41583</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v>05-Nov-2013</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="3"/>
+        <v>41698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
